--- a/src/main/resources/wordDataset/wordDataset.xlsx
+++ b/src/main/resources/wordDataset/wordDataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimhy\Desktop\LL_HKT\BE_crawling\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ideaProject\BE\src\main\resources\wordDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329FDE96-0265-4FC2-91AF-27918C50E0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFCA683-A0F9-4DFF-82DE-4929E745A60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conined_word" sheetId="1" r:id="rId1"/>
@@ -389,15 +389,6 @@
     <t>비득</t>
   </si>
   <si>
-    <t>서로서로 도와요!(서서도)</t>
-  </si>
-  <si>
-    <t>캐리/하드캐리</t>
-  </si>
-  <si>
-    <t>테크트리/테크/트리</t>
-  </si>
-  <si>
     <t>개드립</t>
   </si>
   <si>
@@ -1738,6 +1729,18 @@
   <si>
     <t>누가 말하는데 흐름을 끊은거야</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로서로 도와요!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크트리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2188,17 +2191,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="140.19921875" customWidth="1"/>
+    <col min="2" max="2" width="140.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,1271 +2212,1271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C110" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>506</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>507</v>
+      </c>
+      <c r="B124" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>508</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B129" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
+      <c r="C129" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>270</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C132" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>273</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>279</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B144" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B145" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B146" t="s">
         <v>284</v>
       </c>
-      <c r="C143" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B147" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3490,976 +3493,976 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC0489-5574-4B6E-80F8-5096FCE5D409}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.296875" customWidth="1"/>
-    <col min="2" max="2" width="58.3984375" customWidth="1"/>
+    <col min="1" max="1" width="55.25" customWidth="1"/>
+    <col min="2" max="2" width="58.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="B65" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
+      <c r="B72" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="5" t="s">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B75" s="6" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="5" t="s">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="5" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="5" t="s">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="5" t="s">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="5" t="s">
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="5" t="s">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="5" t="s">
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="5" t="s">
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="5" t="s">
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="5" t="s">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="5" t="s">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="5" t="s">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99" s="5" t="s">
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100" s="5" t="s">
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" s="5" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B104" s="6" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" s="5" t="s">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" s="5" t="s">
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" s="5" t="s">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" s="5" t="s">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" s="5" t="s">
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" s="5" t="s">
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" s="5" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" s="5" t="s">
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" s="5" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" s="5" t="s">
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" s="5" t="s">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" s="5" t="s">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="5" t="s">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" s="5" t="s">
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" s="5" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B124" s="6" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" s="5" t="s">
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127" s="5" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128" s="5" t="s">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129" s="5" t="s">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130" s="5" t="s">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132" s="5" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B133" s="6" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134" s="5" t="s">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135" s="5" t="s">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136" s="5" t="s">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137" s="5" t="s">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138" s="5" t="s">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139" s="5" t="s">
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141" s="5" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142" s="5" t="s">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143" s="5" t="s">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144" s="5" t="s">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/wordDataset/wordDataset.xlsx
+++ b/src/main/resources/wordDataset/wordDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ideaProject\BE\src\main\resources\wordDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFCA683-A0F9-4DFF-82DE-4929E745A60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C90CE-F0B0-48CB-8B0E-F91BDDF6E32F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conined_word" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="647">
   <si>
     <t>word</t>
   </si>
@@ -428,9 +428,6 @@
     <t>사이다</t>
   </si>
   <si>
-    <t>완전</t>
-  </si>
-  <si>
     <t>인증</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>케찹고백</t>
   </si>
   <si>
-    <t>누가 기침소리를 내었어</t>
-  </si>
-  <si>
     <t>가즈아: 도박이나 투자에서 긍정적인 기대를 표현하는 감탄사인데, 소망을 말할 때 사용되는 단어로 의미가 확장되었다.</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
   </si>
   <si>
     <t>ㅋㅋ: 웃음 소리를 자음으로 표현한 신조어이다.</t>
-  </si>
-  <si>
-    <t>코렁탕: 설렁탕을 코로 먹이는 고문 방법이다. 과거 군사독재 정권 당시 북한과 관련되거나 반정부 인사, 국가보안법 위반자들을 남산의 중앙정보부에 잡아가 고문하면서 설렁탕을 입이 아닌 코로 먹인다는 것에서 유래되었다.</t>
   </si>
   <si>
     <t>쿠쿠루삥뽕: 트위치 도네이션의 찬구에서 나왔다.</t>
@@ -775,352 +766,1501 @@
     <t>UBD: 17만 명의 관객을 동원하는 데에 그쳐 흥행에 실패한 《자전차왕 엄복동》의 영문 이니셜을 활용하여 만든 관객 수를 세는 단위로, 1 UBD는 17만 명이다.</t>
   </si>
   <si>
+    <t>-각: 「명사」 가능성, 상황. 게임 리그 오브 레전드의 흥행을 통해 널리 유행하게 되었으며 상대 플레이어를 죽일 가능성을 '킬 각(kill 角)'이라고 하였고, 줄여서 '각'이라고 하였다.</t>
+  </si>
+  <si>
+    <t>개이득: 개 + 이득. '매우 이득을 보았다'는 뜻이다.</t>
+  </si>
+  <si>
+    <t>개피(또는 딸피): 「명사」: 주로 FPS게임에서 사용되는 용어로 총을 사용해 적에게 타격을 주었으나 죽지는 않고 피가 많이 닳았다는 뜻, 피가 조금밖에 없다는, 죽기 일보직전이라는 말이다.</t>
+  </si>
+  <si>
+    <t>광클: 미친(狂) 듯이 마우스 버튼을 빠르게 클릭하는 것을 말한다.</t>
+  </si>
+  <si>
+    <t>너프, 디버프: 「명사」 약화. 《울티마 온라인》에서 어떤 칼의 능력치를 격하시켰는데, 이를 두고 사용자들이 '무슨 너프 칼인가'라고 말한 것에서부터 유래되었다. 너프는 실존하는 장난감 브랜드이다. 이 단어가 만들어지고 후에 '버프'라는 단어가 파생되어 '능력치를 좋게 한다'라는 뜻으로 자리잡았다.</t>
+  </si>
+  <si>
+    <t>다굴: 포트리스에서 유래한 말이지만 다구리에서 파생된 말로 여러 명이서 한 명을 공격한다는 뜻이다.</t>
+  </si>
+  <si>
+    <t>득템: 「동사」 얻을 득(得)자와 영어의 아이템(item)을 합성한 말로, 좋은 아이템을 얻었다는 뜻. 게임뿐 아니라 일상적인 대화 상황에서도 어떤 좋은 물건을 손쉽게 손에 넣었다는 뜻으로 쓰이고 있다.</t>
+  </si>
+  <si>
+    <t>본캐: 「명사」 '본(本) 캐릭터'의 준말로, 게임을 처음 시작했을 때부터 관리한 캐릭터, 혹은 가장 중요한 캐릭터를 뜻한다.</t>
+  </si>
+  <si>
+    <t>부캐: 「명사」 '부속으로 딸린 캐릭터'로, '본캐'와 반대의 의미이다.</t>
+  </si>
+  <si>
+    <t>비득(碑得): 「명사」 죽음. 《메이플스토리》에서 유래한 말로, ‘비석 획득’의 준말이다. 캐릭터가 죽어서 그 자리에 비석이 세워지고, 유령이 된 캐릭터가 그 주위를 빙빙 떠도는 것을 의미한다.</t>
+  </si>
+  <si>
+    <t>캐리/하드캐리: 「명사」: 팀 전투 게임에서 한 사람이 뛰어난 활약으로 팀의 승리를 이끈(carry) 것을 뜻한다. 의미가 확장되어 게임 이외의 분야에서도 쓰인다.</t>
+  </si>
+  <si>
+    <t>테크트리/테크/트리: 「명사」: 순서, 절차, 계획. 테크놀로지 트리(Technology Tree)의 줄임말로, 스타크래프트에서 유닛을 업그레이드하는 순서를 뜻하는 말이다.</t>
+  </si>
+  <si>
+    <t>개드립: 「명사」디시인사이드 코미디프로그램갤러리에서 태생된 단어로서 애드리브(adlib)와 폄하의 의미를 가진 '개'의 합성어. 상대방이 (정도가 심한)터무니없는 말을 하거나 진실되지 못한 발언을 할 때 (개)드립이라고 일축한다. 일반적으로 자신의 필요없는 창의력을 이용하여 남으로부터 관심을 받으려는 대표적인 행위이다. 흔히, 개드립치지 마라는 뜻으로 쓰인다.</t>
+  </si>
+  <si>
+    <t>뇌절: 원래 나루토에 등장하는 기술 이름으로, 똑같은 말이나 행동을 반복하여 상대를 물리게 하는 일을 뜻한다. “1절, 2절, 3절, 명절에 큰절, 뇌절까지 하겠다” 식으로 쓰이다가 ‘뇌절’만 떨어져 나온 것이다.</t>
+  </si>
+  <si>
+    <t>덕후, 덕, 오덕후, 오덕, 씹덕: 「명사」 일본에서 마니아라는 뜻으로 쓰이는 이은지를 한자어처럼 변형한 말로, 어떤 분야에 집중하는 정도가 강한 사람을 가리킨다. 2005년 디시인사이드 애니메이션 갤러리에서 ‘오덕후’라는 단어를 처음으로 사용하였다. 덕후로서 하는 일을 덕질이라고 한다.</t>
+  </si>
+  <si>
+    <t>병맛: 「명사」병신 같은 맛. 디시인사이드 연재카툰 갤러리에서 처음 사용되었으며, '어이없다'을 뜻한다.</t>
+  </si>
+  <si>
+    <t>뷁: 포괄적인 ‘부정적 표현’으로 쓰인다. 문희준의 〈I〉라는 노래에서 ‘왜 날 브레이크(break)’의 발음이 ‘왜 날 뷁’과 같이 들린다는 점을 이용해서, 네티즌이 이를 조롱하기 위하여 만든 말이다.</t>
+  </si>
+  <si>
+    <t>킹왕짱: 「명사」 영어 단어 '킹(King)'에 한자 '왕(王)'을 덧붙이고, 거기에 최고라는 뜻의 '짱'을 더하여 최고 중의 최고라는 뜻으로 쓰인다. 디시인사이드 와우(WOW, World of Warcraft) 갤러리에서 '병신 아이디 찾기' 이벤트를 하다가 발견되었고 이내 와갤러들에 의해 '최고로 강력한 아이디'로 선정되었다.</t>
+  </si>
+  <si>
+    <t>고구마: 고구마를 많이 먹은 듯한 답답한 상황 또는 그러한 사람을 가리키는 말.</t>
+  </si>
+  <si>
+    <t>번개: 1990년대 PC통신 시절 유래한 신조어로, 채팅을 통해 만나다가 즉흥적인 제안에 따라 실제로 만남을 가지는 일을 뜻한다.</t>
+  </si>
+  <si>
+    <t>비밀번호: 스포츠 구단의 암흑기를 가리키는 말.</t>
+  </si>
+  <si>
+    <t>사이다: 답답한 상황에서 통쾌하고 시원하게 전개되는 것 또는 그러한 사람을 가리키는 말.</t>
+  </si>
+  <si>
+    <t>완전: 「부사」 매우. 신화의 전진이 싸이월드 미니홈피에서 “완전 사랑합니다.”라는 글을 올린 뒤 점차 널리 쓰이게 되었다.</t>
+  </si>
+  <si>
+    <t>인증: 「명사」 어떠한 사적인 행위나 사실을 증명함. 예를 들어, 새로운 물건을 샀을 때 이를 사진으로 찍어서 자신의 SNS에 올리는 행위를 들 수 있다. 인증을 위해 찍은 사진을 '인증샷'이라고 한다.</t>
+  </si>
+  <si>
+    <t>1도: 하나도. 헨리가 2014년에 MBC 《진짜 사나이》에서 군내 퀴즈 대회의 정답으로 ‘모라고 하는지 1도 모르겠습니다’라고 적은 것에서 유래한 ‘1도 모르겠다.’가 먼저 유행하였고, 이후 ‘1도 없다.’ 등의 표현이 유행하였다. 그러나 '1도 모르겠다.'라는 표현이 실은  2010년도에도 이미 유행하며 쓰였던 말이라는 설도 있다.</t>
+  </si>
+  <si>
+    <t>극대노(極大怒): 아주 심하게 화를 냄. 2001년에 SBS 시트콤 《웬만해선 그들을 막을 수 없다》에서 나왔다. 화내는 단계 중 제일 높은 단계이며 아래로는 극소노, 소노, 중노, 대노가 있다.</t>
+  </si>
+  <si>
+    <t>먹방: 먹으면서 하는 방송의 줄임말로 영화 《황해》에서 하정우가 김밥을 먹는 장면을 본 관객들이 깊은 인상을 받으면서 퍼지기 시작했다. 일반적으로 먹방은 시청자로 하여금 출연자가 먹는 음식을 먹고 싶게 만드는 신종 밥도둑과 같은 것이라고 한다.</t>
+  </si>
+  <si>
+    <t>빵꾸똥꾸: 2009년에 MBC 일일시트콤 《지붕뚫고 하이킥!》에서 나온 말이다. 극중에 평소 방귀를 잘 뀌는 순재는 어린 해리 앞에서도 방귀를 뀌어댔다. 해리의 엄마인 현경은 순재에게 "아버지는 그렇게 똥꼬를 들이대고 방귀를 뀌세요?"라고 했고 순재는 "방귀 뀌면 어때서? 너야말로 애비한테 똥꼬가 뭐야! 똥꼬가!"라고 했다. 그러자 현경은 "애한테 자꾸 방귀를 먹이니까 똥꼬라고 하죠!"라고 했다. 그러자 순재는 "방귀 먹인다고 똥꼬라고 해?"라고 하자 말을 막 배우던 해리는 할아버지 순재를 '빵꾸똥꾸'라고 부르기 시작했고 그 후부터 해리는 마음에 안 드는 사람은 "빵꾸똥꾸"라고 부르기 시작한다. 그 후 '빵꾸똥꾸'라는 말이 인터넷과 대한민국 사회에서 유행하기 시작하였다. 방송통신심의위원회는 이에 대하여 폭력적인 언행이라고 권고 조치를 내렸다. YTN 뉴스를 진행하던 앵커가 이 사실을 뉴스 리포팅을 하다가 웃음을 터뜨렸다. 빵꾸는 방귀를 의미하고 똥꾸는 항문을 의미한다.</t>
+  </si>
+  <si>
+    <t>좋은가봉가: 「동사」 2013년에 MBC 예능 《아빠! 어디가?》에서 나온 유행어이다. 프로그램에 출연하는 윤민수의 아들 윤후가 송종국의 딸인 지아가 자기를 좋아하는 것 같다는 뜻에서 '지아가 나가 좋은가봉가'라는 말을 하였다. 아이의 순수하고 귀여운 모습에 '좋은가봉가'는 유행어가 되었다.</t>
+  </si>
+  <si>
+    <t>케찹고백: 2017 설 아육대 촬영장에서 여자친구 엄지가 팬들에게 “케첩 두 개 받은 사람! 양심고백!”이라 말한 데에서 시작된 유행어로 사소한 것에 대한 고백을 의미한다.</t>
+  </si>
+  <si>
+    <t>누가 기침소리를 내었어: 《태조 왕건》이라는 드라마에서 신하가 기침을 하자 궁예가 "누구인가? 누가 기침소리를 내었어?"라고 한 것이 결국 유행어가 되었다.</t>
+  </si>
+  <si>
+    <t>/wiki/%EA%B0%80%EC%A6%88%EC%95%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EA%B5%AD%EB%BD%95</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%88%98%EC%A0%80%EA%B3%84%EA%B8%89%EB%A1%A0</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%89%B4%ED%8A%B8%EB%A1%9C</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%8C%80%EC%9D%B8%EB%B0%B0</t>
+  </si>
+  <si>
+    <t>/wiki/%EA%BC%B0%EB%8C%80</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%99%B8%EA%B3%84%EC%96%B4_(%ED%86%B5%EC%8B%A0%EC%96%B8%EC%96%B4)</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%96%B4%EC%A9%94%ED%8B%B0%EB%B9%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%9D%BC%EC%A7%84%ED%9A%8C_(%ED%8F%AD%EB%A0%A5_%EB%8B%A8%EC%B2%B4)</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%9E%BC%EB%AF%BC%EC%9D%B4</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%B6%A9_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
+  </si>
+  <si>
+    <t>/wiki/%E3%85%8B%E3%85%8B</t>
+  </si>
+  <si>
+    <t>/wiki/%ED%83%95%EC%A7%84%EC%9E%BC</t>
+  </si>
+  <si>
+    <t>/w/index.php?title=%ED%8A%80%EB%8B%A4&amp;action=edit&amp;redlink=1</t>
+  </si>
+  <si>
+    <t>/wiki/%EA%B0%80%EC%84%B1%EB%B9%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%82%B4%EB%A1%9C%EB%82%A8%EB%B6%88</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%8A%A4%ED%8E%99</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%8D%B8_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%95%85%ED%94%8C</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%97%84%EC%B9%9C%EC%95%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%A6%90</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%B9%98%EB%A7%A5</t>
+  </si>
+  <si>
+    <t>/wiki/PD%EC%88%98%EC%B2%A9%EC%9D%98_%EB%AF%B8%EA%B5%AD%EC%82%B0_%EC%87%A0%EA%B3%A0%EA%B8%B0_%EA%B4%80%EB%A0%A8_%EB%B3%B4%EB%8F%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%A0%88%EC%95%8C_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%A7%A4%EB%B0%A9</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%B2%88%EA%B0%9C</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%82%AC%EC%9D%B4%EB%8B%A4</t>
+  </si>
+  <si>
+    <t>https://ko.wiktionary.org/wiki/%EC%99%84%EC%A0%84</t>
+  </si>
+  <si>
+    <t>/wiki/%EC%9D%B8%EC%A6%9D</t>
+  </si>
+  <si>
+    <t>/wiki/%EB%A8%B9%EB%B0%A9</t>
+  </si>
+  <si>
+    <t>뉴트로(new, 새로운 + retro, 고전): 2010년대 후반부터 10대와 20대 사이에서 새롭게 유행하는 풍이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가즈아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 문화 자부심</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상류층</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급식 이용 학생</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관적 의견</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레트로 모던</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의로운 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸 사랑꾼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 생각 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고집쟁이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸 좋은 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스 카드 충전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>애호가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>심부름꾼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시아버지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충동적 스트레스 해소 비용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽구만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 고수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라라?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사에서 일 안하는 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의도하지 않은 이득</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등학생</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충동적 소비 장려</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매사에 진지한 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성적인 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건에 비해 가격이 너무 비싸다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하는 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>키키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약오르지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 도망가다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광우뻥(광우병 + 뻥): 2007년 4월 당시부터 시작된 미국산 소 관련 광우병(소해면상뇌병증)의 관련된 파문과 2008년 MBC PD수첩의 미국산 쇠고기 관련 보도 등을 가장 강하게 비꼬는 취지의 말이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로서로 도와요!(서서도): 슈퍼 마리오 메이커 2에서 배틀 시스템이 도입되어 있는데, 여기서 메시지 중 하나인 '서로서로 도와요!'를 플레이어가 이 메시지를 쓴 플레이어를 죽였을 때 쓰인다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>해보자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자부심 : 명사 자기 자신 또는 자기와 관련되어 있는 것에 대하여 스스로 그 가치나 능력을 믿고 당당히 여기는 마음.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 신분이나 생활 수준 따위가 높은 계층.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 용어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급식 : 학교에서 집단으로 학생들에게 점심 식사를 제공하는 일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관적 : 명사. 자기의 견해나 관점을 기초로 하는 것.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>레트로 : 명사. 과거의 모양, 정치, 사상, 제도, 풍습 따위로 돌아가거나 그것을 본보기로 삼아 그대로 좇아 하려는 것을 통틀어 이르는 말</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑꾼 : 명사. 사랑을 최고의 가치로 여겨 사랑하는 사람에게 온 정성을 다하는 사람.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 어렸을 때는 있잖아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 고집이 센 사람을 얕잡아 이르는 말. (=고집통이)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개하다 : 동사. 어떤 사실이나 사물, 내용 따위를 여러 사람에게 널리 터놓다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 순간에 거지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 어떤 사물이나 사람을 사랑하고 좋아하는 사람.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 심부름을 하는 사람</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 남편의 아버지를 이르는 말</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무말하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 한글 표기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한테 신경 꺼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 품행이 천박하고 못된 짓을 일삼는 사람을 속되게 이르는 말.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 초등학교에 다니는학생</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 닭에 밀가루 따위를 입히고 튀겨 만든 요리. 굽기도 한다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사. 양이나 정도가 아주 지나친 상태.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음소리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 숨기고 있는 사실을 강제로 알아내기 위하여 육체적ㆍ정신적 고통을 주며 신문함.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 필요한 것이 모두 갖추어져 모자람이나 흠이 없음.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>거액금 소모</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>악랄한 북한 사람</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼰대</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 권위적인 사고를 가진 기성세대를 속되게 말하는 뜻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기혼남자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>과시하다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>호구같은 남편</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 진짜 완전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라 음식 선취 빈도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 힙함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득이 적은 사람</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 대비 성능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 대비 심리적 만족도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강제 퇴장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 반대</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 조용해진다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈치있게 행동하다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 놀래킨다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 여성 비하 표현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자인 친구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이기적인 사고방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어넘을 수 없다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>달고 짠 맛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일이 있어도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유명하지 않은</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 키키</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지원 목적 달성 실패 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유행 바보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 군사 명백한 군사적 적대 행위 없이 적군이나 상대국 국민에게 심리적인 자극과 압력을 주어 자기 나라의 정치ㆍ외교ㆍ군사 면에 유리하도록 이끄는 전쟁.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음악</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 영화나 연극 따위에서, 분위기를 조성하기 위하여 대사나 동작의 배경으로 연주하는 음악.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 각 개인의 정신적ㆍ신체적 능력이나 특성의 차이.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명. 아시아 대륙 동쪽에 있는 활 모양의 열도. 홋카이도(北海道), 혼슈(本州), 시코쿠(四國), 규슈(九州) 따위의 큰 섬과 3,500여 개의 작은 섬으로 이루어져 있다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직하게</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 어떤 사업이나 연구 따위에서 세운 공적.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감단계</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜 댓글</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>안궁금해</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽한 남성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자인 친구</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>과도한 비방</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>용기있는 사람</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는 사진</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃긴데 사실 슬퍼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보도 아니고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 왜 진짜지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>망했다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상인 척</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아서 잘 센스있게</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음대로 안된다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목과 내용이 일치하다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 맛있다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼져</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨에 맥주</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페에서 공부하는 사람</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황별</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 명사. 상황에 따른 구별.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭큭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음 소리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈이 없다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 남자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀라운걸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥행 실패</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>광우병 허위 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영란법의 허점</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 수 있겠다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 이득</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥난 체력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>습격</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 갑자기 상대편을 덮쳐 침.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 클릭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 세력이나 힘이 약해짐. 또는 그렇게 되게 함.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭇매</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 아이템을 얻다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 캐릭터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부속 캐릭터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 죽음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 플레이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>활약</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 활발히 활동함.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>절차</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 일을 치르는 데 거쳐야 하는 순서나 방법.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미없는 농담</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>질리는 행동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니아</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 어떤 한 가지 일에 몹시 열중하는 사람. 또는 그런 일.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이없다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>anjdimm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제 방지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
+  </si>
+  <si>
+    <t>종결자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 해당 분야에서 그 이상의 사람이 없을 정도로 가장 뛰어난 사람을 비유적으로 이르는 말.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답답한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉흥 만남</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 구단 암흑기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통쾌하다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 증명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>격분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 몹시 분하고 노여운 감정이 북받쳐 오름.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹으면서 하는 방송</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청아</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은가봐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사소한 고백</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사. 잘못한 일에 대하여 엄하게 따져서 밝힘.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지못미(지켜주지 못해서 미안해)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민폐 자전거 탑승자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>변호 못 해줄 것 같아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 말하는데 흐름을 끊은거야</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로서로 도와요!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테크트리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wiki/%EA%B3%A0%EA%B5%AC%EB%A7%88</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱: 비디오 게임 리그 오브 레전드의 'Ganking'이란 단어에서 유래한 용어로 급작스러운 습격을 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 시험은 합격 가즈아!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크~ 국뽕이 차오른다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금수저로 태어나서 진짜 좋겠다~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급식체 좀 그만 써!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 급식충아 좀 가만히 있어!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 뇌피셜이긴 한데…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 뉴트로 감성 너무 좋다!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 저렇게 대인배인 사람이 너무 좋아!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 아빠는 진짜 딸바보라니까~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어허~ 라떼는 말이야~ 다 했었어~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ 아 레게노네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 뭐하고 있어? [나] ㅁㄴㅇㄹ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 맘충들 때문에 피해보는 사람이 많은 것 같아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 몸짱이 되고 말거야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 나 어제 방밍아웃 당했어 ㅠㅠ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥 무슨 129?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버카충 만원 해주세요!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 부동산이랑 물가가 너무 올라서 벼락거지 된 것 같아…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 메시빠야? 호날두빠야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟤 고등학교 때 내 빵셔틀이었잖아 ㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샵쥐~ 건강하게 지내셨어요~?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 어제 시발비용으로 10만원 썼어…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 ㅋㅋㅋ 진짜 십구만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 뭐야? 쌉고수였네;;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 띄울려고 아무 말 대잔치중이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라랍스타?? 원래 이랬었던가?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계어쓰지 말고 똑바로 말해!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 회사는 진짜 월급루팡이 많은 것 같아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔티비~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에서 밥먹고 있던 OOO, 의문의 1승</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟤가 우리 학교 일진이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜 잼민이 같이 굴어~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 인형봐! 진짜 지름신 들게 만든다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진지충 진짜;; 분위기 파악 좀 해~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몸이 좋은 남성을 보며) 와 진짜 짐승남이다~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 짱OO;; 대박이다 정말</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 가게 좀 창렬인것 같은데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 롤하자고 그만해 이 롤충아!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 치느님을 영접해야겠어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 ㅋㅋㅋㅋ 진짜 캐웃기네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 개웃김 ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코렁탕: 설렁탕을 코로 먹이는 고문 방법이다. 과거 군사독재 정권 당시 북한과 관련되거나 반정부 인사, 국가보안법 위반자들을 남산의 중앙정보부에 잡아가 고문하면서 설렁탕을 입이 아닌 코로 먹인다는 것에서 유래되었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그거 잘못 말하면 코렁탕 먹을지도 몰라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ 쿠쿠루삥뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 치킨은 킹정이지 ㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 통장 탕진잼~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 얼른 튀어!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공장소에서 저런 말을 하네;; 토빨인가?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런 행동하는 틀니딱딱들 너무 싫어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 이제 품절남(녀)다~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 쇼핑은 플렉스 제대로 해보자!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그러다 퐁퐁남 된다?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 핵주먹인가? 너무 아프다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 혈중 마라 농도가 낮은데… 오늘 점심 마라탕 먹을래?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기가 되게 힙한줄 아나봐 홍대병인가?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 흙수저라 열심히 살아야해…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 이 가게 가성비 되게 좋은데?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 이건 가심비가 좋다니까~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 사람 그냥 강퇴하는게 어때요? 방장님?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 메시까였어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 이 갑분싸는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 낄끼빠빠 잘해주세요~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 갑툭튀 때문에 공포영화가 싫어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 사람 김치녀같아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 나나 짜증나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걔는 그냥 남사친이야~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 그게? 내로남불 하지마!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 넘사벽으로 잘하는거 아니야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 단짠단짠한 음식이 좋아!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘부터 대깨운동 할거야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구야? 이 듣보잡은?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 진짜 웃기지 않아? [나] ㄹㅇㅋㅋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저렇게 할거면 왜 여기 온거야? 먹튀하네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 모르네… 문찐이야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 친구랑 너무 밀당만 하고 더 못 나아가는 것 같아…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브금틀까?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 사바사니 그럴 수도 있지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 성진국인가?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 솔까말 그건 아니지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 회사에 들어가려면 좋은 스펙이 필요해!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그 친구랑 썸타고 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 그 연예인, 악플 때문에 고생하는 것 같더라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 나 오늘 어디가서 뭐 먹었고~ [나] 안물안궁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>키도 크고 잘생겼는데 공부도 잘하면 그냥 엄친아네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걔는 그냥 여사친이야~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 친구 지금 너무 화나서 열폭중이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저걸 해냈네… 진짜 용자다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 움짤 봤어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저게 지금 내 상황인 것 같아서 웃프다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥 이왜진?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이뭐병 어쩌다 된거야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 이생망인가봐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 옷이면 일코해도 모르지 않을까?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알잘딱깔센 부탁드립니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어허 억까하지마!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 어디야? 다 왔어? [나] ㅈㅅ 조금 늦을듯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 운전할때는 자라니들을 조심해야해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[제목] 이번에 OO 놀러가려는데 맛집 추천해주세요! [내용] ㅈㄱㄴ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 진짜 존맛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[댓글] 그건 아니지 않나요? [답글] 즐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 오늘 비가 너무 많이 와서 다 젖었어… [나] 지못미…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 불금이니까 치맥 먹자!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 카페도 카공족이 많네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 케바케라 매번 다를껄?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 지금 텅장이라 이번달 버텨야해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[친구] 어제 OO랑 OO랑 그랬다고 하더라고~ [나] 흠좀무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>귀맹랑법(귀신 씨나락 까먹는 듯이 + 맹랑한 + 법률): 청탁접대금지법(김영란법)이라는 이른바 부정 청탁 및 금품 등 수수 관련 금지에 관한 법률(2016년 제정)의 허점을 부정적으로 비꼬는 말.</t>
-  </si>
-  <si>
-    <t>-각: 「명사」 가능성, 상황. 게임 리그 오브 레전드의 흥행을 통해 널리 유행하게 되었으며 상대 플레이어를 죽일 가능성을 '킬 각(kill 角)'이라고 하였고, 줄여서 '각'이라고 하였다.</t>
-  </si>
-  <si>
-    <t>개이득: 개 + 이득. '매우 이득을 보았다'는 뜻이다.</t>
-  </si>
-  <si>
-    <t>개피(또는 딸피): 「명사」: 주로 FPS게임에서 사용되는 용어로 총을 사용해 적에게 타격을 주었으나 죽지는 않고 피가 많이 닳았다는 뜻, 피가 조금밖에 없다는, 죽기 일보직전이라는 말이다.</t>
-  </si>
-  <si>
-    <t>갱: 비디오 게임 리그 오브 레전드의 'Ganking'이란 단어에서 유래한 용어로 급작스러운 습격을 의미한다.</t>
-  </si>
-  <si>
-    <t>광클: 미친(狂) 듯이 마우스 버튼을 빠르게 클릭하는 것을 말한다.</t>
-  </si>
-  <si>
-    <t>너프, 디버프: 「명사」 약화. 《울티마 온라인》에서 어떤 칼의 능력치를 격하시켰는데, 이를 두고 사용자들이 '무슨 너프 칼인가'라고 말한 것에서부터 유래되었다. 너프는 실존하는 장난감 브랜드이다. 이 단어가 만들어지고 후에 '버프'라는 단어가 파생되어 '능력치를 좋게 한다'라는 뜻으로 자리잡았다.</t>
-  </si>
-  <si>
-    <t>다굴: 포트리스에서 유래한 말이지만 다구리에서 파생된 말로 여러 명이서 한 명을 공격한다는 뜻이다.</t>
-  </si>
-  <si>
-    <t>득템: 「동사」 얻을 득(得)자와 영어의 아이템(item)을 합성한 말로, 좋은 아이템을 얻었다는 뜻. 게임뿐 아니라 일상적인 대화 상황에서도 어떤 좋은 물건을 손쉽게 손에 넣었다는 뜻으로 쓰이고 있다.</t>
-  </si>
-  <si>
-    <t>본캐: 「명사」 '본(本) 캐릭터'의 준말로, 게임을 처음 시작했을 때부터 관리한 캐릭터, 혹은 가장 중요한 캐릭터를 뜻한다.</t>
-  </si>
-  <si>
-    <t>부캐: 「명사」 '부속으로 딸린 캐릭터'로, '본캐'와 반대의 의미이다.</t>
-  </si>
-  <si>
-    <t>비득(碑得): 「명사」 죽음. 《메이플스토리》에서 유래한 말로, ‘비석 획득’의 준말이다. 캐릭터가 죽어서 그 자리에 비석이 세워지고, 유령이 된 캐릭터가 그 주위를 빙빙 떠도는 것을 의미한다.</t>
-  </si>
-  <si>
-    <t>캐리/하드캐리: 「명사」: 팀 전투 게임에서 한 사람이 뛰어난 활약으로 팀의 승리를 이끈(carry) 것을 뜻한다. 의미가 확장되어 게임 이외의 분야에서도 쓰인다.</t>
-  </si>
-  <si>
-    <t>테크트리/테크/트리: 「명사」: 순서, 절차, 계획. 테크놀로지 트리(Technology Tree)의 줄임말로, 스타크래프트에서 유닛을 업그레이드하는 순서를 뜻하는 말이다.</t>
-  </si>
-  <si>
-    <t>개드립: 「명사」디시인사이드 코미디프로그램갤러리에서 태생된 단어로서 애드리브(adlib)와 폄하의 의미를 가진 '개'의 합성어. 상대방이 (정도가 심한)터무니없는 말을 하거나 진실되지 못한 발언을 할 때 (개)드립이라고 일축한다. 일반적으로 자신의 필요없는 창의력을 이용하여 남으로부터 관심을 받으려는 대표적인 행위이다. 흔히, 개드립치지 마라는 뜻으로 쓰인다.</t>
-  </si>
-  <si>
-    <t>뇌절: 원래 나루토에 등장하는 기술 이름으로, 똑같은 말이나 행동을 반복하여 상대를 물리게 하는 일을 뜻한다. “1절, 2절, 3절, 명절에 큰절, 뇌절까지 하겠다” 식으로 쓰이다가 ‘뇌절’만 떨어져 나온 것이다.</t>
-  </si>
-  <si>
-    <t>덕후, 덕, 오덕후, 오덕, 씹덕: 「명사」 일본에서 마니아라는 뜻으로 쓰이는 이은지를 한자어처럼 변형한 말로, 어떤 분야에 집중하는 정도가 강한 사람을 가리킨다. 2005년 디시인사이드 애니메이션 갤러리에서 ‘오덕후’라는 단어를 처음으로 사용하였다. 덕후로서 하는 일을 덕질이라고 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 점심은 마라탕각!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아싸 개이득</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FPS 게임 플레이 중) 저기 2층에 있는 적 개피야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(게임 플레이 중 습격 당한 상황) 아 갱당해서 죽었어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 콘서트 티켓 예매를 위해선 광클해야해!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 캐릭터 이번에 너프 당해서 안 좋을걸?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 쎄도 다굴에는 장사 없어~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아싸 득템!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 본캐라 망하면 안돼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 유재O이 유O슬이라는 부캐로 TV에 나오던데 재밌더라!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 내가 캐리했지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 테크트리가 좋다고 유명하더라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 개드립 그만해 재미없어;;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부러 웃기려고 뇌절하네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 아이돌 덕후야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥 레알?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>레알: 「부사」디시인사이드 해외 축구 갤러리에서 생성된 말. '정말이야?'라는 뜻으로 쓰인다. 레알 마드리드에서의 레알(real)이 리얼(영어: real)과 발음만 다르고 철자가 일치해 리얼과 같은 뜻으로 쓰인다.</t>
-  </si>
-  <si>
-    <t>병맛: 「명사」병신 같은 맛. 디시인사이드 연재카툰 갤러리에서 처음 사용되었으며, '어이없다'을 뜻한다.</t>
-  </si>
-  <si>
-    <t>뷁: 포괄적인 ‘부정적 표현’으로 쓰인다. 문희준의 〈I〉라는 노래에서 ‘왜 날 브레이크(break)’의 발음이 ‘왜 날 뷁’과 같이 들린다는 점을 이용해서, 네티즌이 이를 조롱하기 위하여 만든 말이다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 영화 진짜 병맛이네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[나] 오늘은 OO에서 보는거 어때? [친구] 뷁 너무 멀어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>짤방, 짤: 「명사」 '짤림 방지용 사진'의 준말. 게시판에 유머 글을 올릴 때 사람들에게 주목받지 못하고 게시글이 뒷페이지로 묻히는 것을 방지할 목적으로, 사람들의 이목을 집중시키기 위해 만든 간단한 엽기 사진들을 일컫는다. 디시인사이드에서 생겨난 말이다.</t>
-  </si>
-  <si>
-    <t>킹왕짱: 「명사」 영어 단어 '킹(King)'에 한자 '왕(王)'을 덧붙이고, 거기에 최고라는 뜻의 '짱'을 더하여 최고 중의 최고라는 뜻으로 쓰인다. 디시인사이드 와우(WOW, World of Warcraft) 갤러리에서 '병신 아이디 찾기' 이벤트를 하다가 발견되었고 이내 와갤러들에 의해 '최고로 강력한 아이디'로 선정되었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 짤방 봤어? 진짜 웃기더라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 킹왕짱이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>甲(갑): 「명사」 어떤 분야에서 제일가는 사람이나 사물, 현상 따위를 이르는 말로, ‘종결자’와 비슷한 의미를 가지고 있다. KIA 타이거즈의 팬이 ‘神’을 ‘申’으로 잘못 적은 팻말을 들고 있는 사진이 찍혔는데 이를 누군가가 모양이 비슷한 ‘甲’으로 잘못 읽고 댓글을 남긴 데서 유래하였다.</t>
-  </si>
-  <si>
-    <t>고구마: 고구마를 많이 먹은 듯한 답답한 상황 또는 그러한 사람을 가리키는 말.</t>
-  </si>
-  <si>
-    <t>번개: 1990년대 PC통신 시절 유래한 신조어로, 채팅을 통해 만나다가 즉흥적인 제안에 따라 실제로 만남을 가지는 일을 뜻한다.</t>
-  </si>
-  <si>
-    <t>비밀번호: 스포츠 구단의 암흑기를 가리키는 말.</t>
-  </si>
-  <si>
-    <t>사이다: 답답한 상황에서 통쾌하고 시원하게 전개되는 것 또는 그러한 사람을 가리키는 말.</t>
-  </si>
-  <si>
-    <t>완전: 「부사」 매우. 신화의 전진이 싸이월드 미니홈피에서 “완전 사랑합니다.”라는 글을 올린 뒤 점차 널리 쓰이게 되었다.</t>
-  </si>
-  <si>
-    <t>인증: 「명사」 어떠한 사적인 행위나 사실을 증명함. 예를 들어, 새로운 물건을 샀을 때 이를 사진으로 찍어서 자신의 SNS에 올리는 행위를 들 수 있다. 인증을 위해 찍은 사진을 '인증샷'이라고 한다.</t>
-  </si>
-  <si>
-    <t>1도: 하나도. 헨리가 2014년에 MBC 《진짜 사나이》에서 군내 퀴즈 대회의 정답으로 ‘모라고 하는지 1도 모르겠습니다’라고 적은 것에서 유래한 ‘1도 모르겠다.’가 먼저 유행하였고, 이후 ‘1도 없다.’ 등의 표현이 유행하였다. 그러나 '1도 모르겠다.'라는 표현이 실은  2010년도에도 이미 유행하며 쓰였던 말이라는 설도 있다.</t>
-  </si>
-  <si>
-    <t>극대노(極大怒): 아주 심하게 화를 냄. 2001년에 SBS 시트콤 《웬만해선 그들을 막을 수 없다》에서 나왔다. 화내는 단계 중 제일 높은 단계이며 아래로는 극소노, 소노, 중노, 대노가 있다.</t>
-  </si>
-  <si>
-    <t>먹방: 먹으면서 하는 방송의 줄임말로 영화 《황해》에서 하정우가 김밥을 먹는 장면을 본 관객들이 깊은 인상을 받으면서 퍼지기 시작했다. 일반적으로 먹방은 시청자로 하여금 출연자가 먹는 음식을 먹고 싶게 만드는 신종 밥도둑과 같은 것이라고 한다.</t>
-  </si>
-  <si>
-    <t>빵꾸똥꾸: 2009년에 MBC 일일시트콤 《지붕뚫고 하이킥!》에서 나온 말이다. 극중에 평소 방귀를 잘 뀌는 순재는 어린 해리 앞에서도 방귀를 뀌어댔다. 해리의 엄마인 현경은 순재에게 "아버지는 그렇게 똥꼬를 들이대고 방귀를 뀌세요?"라고 했고 순재는 "방귀 뀌면 어때서? 너야말로 애비한테 똥꼬가 뭐야! 똥꼬가!"라고 했다. 그러자 현경은 "애한테 자꾸 방귀를 먹이니까 똥꼬라고 하죠!"라고 했다. 그러자 순재는 "방귀 먹인다고 똥꼬라고 해?"라고 하자 말을 막 배우던 해리는 할아버지 순재를 '빵꾸똥꾸'라고 부르기 시작했고 그 후부터 해리는 마음에 안 드는 사람은 "빵꾸똥꾸"라고 부르기 시작한다. 그 후 '빵꾸똥꾸'라는 말이 인터넷과 대한민국 사회에서 유행하기 시작하였다. 방송통신심의위원회는 이에 대하여 폭력적인 언행이라고 권고 조치를 내렸다. YTN 뉴스를 진행하던 앵커가 이 사실을 뉴스 리포팅을 하다가 웃음을 터뜨렸다. 빵꾸는 방귀를 의미하고 똥꾸는 항문을 의미한다.</t>
-  </si>
-  <si>
-    <t>좋은가봉가: 「동사」 2013년에 MBC 예능 《아빠! 어디가?》에서 나온 유행어이다. 프로그램에 출연하는 윤민수의 아들 윤후가 송종국의 딸인 지아가 자기를 좋아하는 것 같다는 뜻에서 '지아가 나가 좋은가봉가'라는 말을 하였다. 아이의 순수하고 귀여운 모습에 '좋은가봉가'는 유행어가 되었다.</t>
-  </si>
-  <si>
-    <t>케찹고백: 2017 설 아육대 촬영장에서 여자친구 엄지가 팬들에게 “케첩 두 개 받은 사람! 양심고백!”이라 말한 데에서 시작된 유행어로 사소한 것에 대한 고백을 의미한다.</t>
-  </si>
-  <si>
-    <t>누가 기침소리를 내었어: 《태조 왕건》이라는 드라마에서 신하가 기침을 하자 궁예가 "누구인가? 누가 기침소리를 내었어?"라고 한 것이 결국 유행어가 되었다.</t>
-  </si>
-  <si>
-    <t>/wiki/%EA%B0%80%EC%A6%88%EC%95%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EA%B5%AD%EB%BD%95</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%88%98%EC%A0%80%EA%B3%84%EA%B8%89%EB%A1%A0</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%89%B4%ED%8A%B8%EB%A1%9C</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%8C%80%EC%9D%B8%EB%B0%B0</t>
-  </si>
-  <si>
-    <t>/wiki/%EA%BC%B0%EB%8C%80</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%99%B8%EA%B3%84%EC%96%B4_(%ED%86%B5%EC%8B%A0%EC%96%B8%EC%96%B4)</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%96%B4%EC%A9%94%ED%8B%B0%EB%B9%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%9D%BC%EC%A7%84%ED%9A%8C_(%ED%8F%AD%EB%A0%A5_%EB%8B%A8%EC%B2%B4)</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%9E%BC%EB%AF%BC%EC%9D%B4</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%B6%A9_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
-  </si>
-  <si>
-    <t>/wiki/%E3%85%8B%E3%85%8B</t>
-  </si>
-  <si>
-    <t>/wiki/%ED%83%95%EC%A7%84%EC%9E%BC</t>
-  </si>
-  <si>
-    <t>/w/index.php?title=%ED%8A%80%EB%8B%A4&amp;action=edit&amp;redlink=1</t>
-  </si>
-  <si>
-    <t>/wiki/%EA%B0%80%EC%84%B1%EB%B9%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%82%B4%EB%A1%9C%EB%82%A8%EB%B6%88</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%8A%A4%ED%8E%99</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%8D%B8_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%95%85%ED%94%8C</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%97%84%EC%B9%9C%EC%95%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%A6%90</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%B9%98%EB%A7%A5</t>
-  </si>
-  <si>
-    <t>/wiki/PD%EC%88%98%EC%B2%A9%EC%9D%98_%EB%AF%B8%EA%B5%AD%EC%82%B0_%EC%87%A0%EA%B3%A0%EA%B8%B0_%EA%B4%80%EB%A0%A8_%EB%B3%B4%EB%8F%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%A0%88%EC%95%8C_(%EC%8B%A0%EC%A1%B0%EC%96%B4)</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%A7%A4%EB%B0%A9</t>
-  </si>
-  <si>
-    <t>/wiki/%EA%B3%A0%EA%B5%AC%EB%A7%88</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%B2%88%EA%B0%9C</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%82%AC%EC%9D%B4%EB%8B%A4</t>
-  </si>
-  <si>
-    <t>https://ko.wiktionary.org/wiki/%EC%99%84%EC%A0%84</t>
-  </si>
-  <si>
-    <t>/wiki/%EC%9D%B8%EC%A6%9D</t>
-  </si>
-  <si>
-    <t>/wiki/%EB%A8%B9%EB%B0%A9</t>
-  </si>
-  <si>
-    <t>뉴트로(new, 새로운 + retro, 고전): 2010년대 후반부터 10대와 20대 사이에서 새롭게 유행하는 풍이다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가즈아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국 문화 자부심</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상류층</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>급식 이용 학생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주관적 의견</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레트로 모던</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정의로운 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸 사랑꾼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 생각 없음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고집쟁이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸 좋은 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공개한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 일이야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>버스 카드 충전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>애호가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>심부름꾼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시아버지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충동적 스트레스 해소 비용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉽구만</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청 고수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라라?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사에서 일 안하는 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>의도하지 않은 이득</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양아치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>초등학생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>충동적 소비 장려</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매사에 진지한 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성적인 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건에 비해 가격이 너무 비싸다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>~하는 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>키키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고문</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>약오르지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 핸드폰은 애플이 갑이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜 고구마 100개 먹은 것 같아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 번개모임으로 저녁 먹을 사람~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크~ 진짜 사이다다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1128,618 +2268,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>빨리 도망가다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>광우뻥(광우병 + 뻥): 2007년 4월 당시부터 시작된 미국산 소 관련 광우병(소해면상뇌병증)의 관련된 파문과 2008년 MBC PD수첩의 미국산 쇠고기 관련 보도 등을 가장 강하게 비꼬는 취지의 말이다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로서로 도와요!(서서도): 슈퍼 마리오 메이커 2에서 배틀 시스템이 도입되어 있는데, 여기서 메시지 중 하나인 '서로서로 도와요!'를 플레이어가 이 메시지를 쓴 플레이어를 죽였을 때 쓰인다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>meaning</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>해보자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>자부심 : 명사 자기 자신 또는 자기와 관련되어 있는 것에 대하여 스스로 그 가치나 능력을 믿고 당당히 여기는 마음.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 신분이나 생활 수준 따위가 높은 계층.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 용어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>급식 : 학교에서 집단으로 학생들에게 점심 식사를 제공하는 일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>주관적 : 명사. 자기의 견해나 관점을 기초로 하는 것.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>레트로 : 명사. 과거의 모양, 정치, 사상, 제도, 풍습 따위로 돌아가거나 그것을 본보기로 삼아 그대로 좇아 하려는 것을 통틀어 이르는 말</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑꾼 : 명사. 사랑을 최고의 가치로 여겨 사랑하는 사람에게 온 정성을 다하는 사람.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 어렸을 때는 있잖아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 고집이 센 사람을 얕잡아 이르는 말. (=고집통이)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공개하다 : 동사. 어떤 사실이나 사물, 내용 따위를 여러 사람에게 널리 터놓다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 순간에 거지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 어떤 사물이나 사람을 사랑하고 좋아하는 사람.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 심부름을 하는 사람</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 남편의 아버지를 이르는 말</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무말하기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 한글 표기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>나한테 신경 꺼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 품행이 천박하고 못된 짓을 일삼는 사람을 속되게 이르는 말.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 초등학교에 다니는학생</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 닭에 밀가루 따위를 입히고 튀겨 만든 요리. 굽기도 한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부사. 양이나 정도가 아주 지나친 상태.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웃음소리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 숨기고 있는 사실을 강제로 알아내기 위하여 육체적ㆍ정신적 고통을 주며 신문함.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 필요한 것이 모두 갖추어져 모자람이나 흠이 없음.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>거액금 소모</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>악랄한 북한 사람</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼰대</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 권위적인 사고를 가진 기성세대를 속되게 말하는 뜻</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기혼남자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>과시하다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>호구같은 남편</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청 진짜 완전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라 음식 선취 빈도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국의 힙함</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소득이 적은 사람</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 대비 성능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 대비 심리적 만족도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>강제 퇴장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견 반대</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 조용해진다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈치있게 행동하다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 놀래킨다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국 여성 비하 표현</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>완전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자인 친구</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이기적인 사고방식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰어넘을 수 없다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>달고 짠 맛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 일이 있어도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유명하지 않은</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>진짜 키키</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지원 목적 달성 실패 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>유행 바보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>심리전</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 군사 명백한 군사적 적대 행위 없이 적군이나 상대국 국민에게 심리적인 자극과 압력을 주어 자기 나라의 정치ㆍ외교ㆍ군사 면에 유리하도록 이끄는 전쟁.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경음악</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 영화나 연극 따위에서, 분위기를 조성하기 위하여 대사나 동작의 배경으로 연주하는 음악.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 각 개인의 정신적ㆍ신체적 능력이나 특성의 차이.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지명. 아시아 대륙 동쪽에 있는 활 모양의 열도. 홋카이도(北海道), 혼슈(本州), 시코쿠(四國), 규슈(九州) 따위의 큰 섬과 3,500여 개의 작은 섬으로 이루어져 있다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔직하게</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 어떤 사업이나 연구 따위에서 세운 공적.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감단계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>나쁜 댓글</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>안궁금해</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>완벽한 남성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자인 친구</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>과도한 비방</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>용기있는 사람</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>움직이는 사진</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웃긴데 사실 슬퍼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보도 아니고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 왜 진짜지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>망했다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>정상인 척</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알아서 잘 센스있게</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음대로 안된다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목과 내용이 일치하다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>진짜 맛있다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>꺼져</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨에 맥주</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페에서 공부하는 사람</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황별</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 명사. 상황에 따른 구별.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>큭큭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>웃음 소리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈이 없다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국 남자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀라운걸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥행 실패</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>광우병 허위 정보</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영란법의 허점</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 수 있겠다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 이득</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥난 체력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>습격</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 갑자기 상대편을 덮쳐 침.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스 클릭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>약화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 세력이나 힘이 약해짐. 또는 그렇게 되게 함.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭇매</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 아이템을 얻다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 캐릭터</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부속 캐릭터</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 내 죽음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>함께 플레이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>활약</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 활발히 활동함.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>절차</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 일을 치르는 데 거쳐야 하는 순서나 방법.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미없는 농담</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>질리는 행동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마니아</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 어떤 한 가지 일에 몹시 열중하는 사람. 또는 그런 일.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이없다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>anjdimm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 삭제 방지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 으뜸인 것. 또는 으뜸이 될 만한 것.</t>
-  </si>
-  <si>
-    <t>종결자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 해당 분야에서 그 이상의 사람이 없을 정도로 가장 뛰어난 사람을 비유적으로 이르는 말.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>답답한</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉흥 만남</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스포츠 구단 암흑기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>통쾌하다</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 증명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>격분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 몹시 분하고 노여운 감정이 북받쳐 오름.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹으면서 하는 방송</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍청아</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은가봐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사소한 고백</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명사. 잘못한 일에 대하여 엄하게 따져서 밝힘.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>지못미(지켜주지 못해서 미안해)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>민폐 자전거 탑승자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>변호 못 해줄 것 같아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가 말하는데 흐름을 끊은거야</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로서로 도와요!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테크트리</t>
+    <t>아 나 그거 완전 사랑해 ㅠㅠ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 운동 끝낸거 인증합니다~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 이해가 1도 안간다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걔 완전 극대노 했던데?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(유튜브 인사말 속) 안녕하세요~ 여러분~ 오늘의 먹방은~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 그거 먹지마 이 빵꾸똥꾸야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OO는 내가 좋은가봉가~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구인가? 누가 기침소리를 내었어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 기침소리를 내었어</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1802,7 +2363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1825,6 +2386,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1833,7 +2405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1849,6 +2421,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2189,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="C130" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2201,7 +2776,7 @@
     <col min="2" max="2" width="140.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,1272 +2786,1686 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="D9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="D20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="D28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="D30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="D32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="D33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="D39" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="D42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="D43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="D45" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="D47" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="D56" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="D57" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="D59" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="D63" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="D67" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="D70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="D73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="D74" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="D75" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="D78" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="D80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="D81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="D82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="D83" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="D84" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="D85" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="D86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="D87" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="D88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="D89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="D90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="D91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="D94" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="D96" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="D97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="D98" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D99" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="D100" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="D101" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="D102" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="D103" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="D104" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="D106" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C110" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="D112" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="D113" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="D114" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="D115" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="D117" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="D118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="D119" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="D120" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="D121" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="D124" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="D125" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="D126" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="D127" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="D128" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>626</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="D129" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="D130" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="D131" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="C132" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="D132" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="D133" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="D134" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="D135" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="D136" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>134</v>
       </c>
       <c r="B138" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>637</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>271</v>
+      </c>
+      <c r="D141" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>272</v>
+      </c>
+      <c r="D142" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" t="s">
+        <v>307</v>
+      </c>
+      <c r="D143" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>275</v>
+      </c>
+      <c r="D145" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
         <v>276</v>
       </c>
-      <c r="C138" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>646</v>
+      </c>
+      <c r="B147" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" t="s">
-        <v>281</v>
-      </c>
-      <c r="C143" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" t="s">
-        <v>285</v>
+      <c r="D147" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -3493,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC0489-5574-4B6E-80F8-5096FCE5D409}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3505,964 +4494,964 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B111" s="6"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B113" s="6"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B114" s="6"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B116" s="6"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B118" s="6"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B119" s="6"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B121" s="6"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B143" s="6"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B144" s="6"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B145" s="6"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B146" s="6"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
